--- a/data-prep/planilhas-bimestral-2022-2bim.xlsx
+++ b/data-prep/planilhas-bimestral-2022-2bim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\github\bimestral\data-prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CB0C8-53DB-434A-98E2-FBA91BDDDCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D2E0EE-8337-432C-A974-FA6F894285B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="812" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="812" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="50" r:id="rId1"/>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="481">
   <si>
     <t>Discriminação</t>
   </si>
@@ -2438,6 +2438,9 @@
   </si>
   <si>
     <t>diferença</t>
+  </si>
+  <si>
+    <t>justificativa</t>
   </si>
 </sst>
 </file>
@@ -7273,13 +7276,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A4:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7532,13 +7534,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7935,13 +7934,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8049,13 +8045,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8945,17 +8938,16 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AU53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A25" sqref="A25"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection activeCell="C28" sqref="C28"/>
+      <selection pane="topRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12654,13 +12646,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12882,13 +12871,12 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -14980,8 +14968,8 @@
   </sheetPr>
   <dimension ref="A4:V67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -15021,6 +15009,9 @@
       </c>
       <c r="E5" s="40" t="s">
         <v>424</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -16071,10 +16062,10 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -16088,7 +16079,7 @@
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="30.75" customHeight="1">
+    <row r="2" spans="2:7" ht="30.75" customHeight="1">
       <c r="B2" s="498" t="s">
         <v>145</v>
       </c>
@@ -16096,14 +16087,14 @@
       <c r="D2" s="498"/>
       <c r="E2" s="498"/>
     </row>
-    <row r="3" spans="2:6" ht="15" customHeight="1">
+    <row r="3" spans="2:7" ht="15" customHeight="1">
       <c r="B3" s="113"/>
       <c r="C3" s="113"/>
       <c r="D3" s="113"/>
       <c r="E3" s="113"/>
       <c r="F3" s="113"/>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" thickBot="1">
+    <row r="4" spans="2:7" ht="15" customHeight="1" thickBot="1">
       <c r="B4" s="43"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -16112,7 +16103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="87" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="2:7" ht="87" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="37" t="s">
         <v>50</v>
       </c>
@@ -16128,9 +16119,12 @@
       <c r="F5" s="40" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" thickTop="1"/>
-    <row r="7" spans="2:6" ht="15.75">
+      <c r="G5" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" customHeight="1" thickTop="1"/>
+    <row r="7" spans="2:7" ht="15.75">
       <c r="B7" s="136" t="s">
         <v>129</v>
       </c>
@@ -16147,7 +16141,7 @@
         <v>10629.74767886987</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75">
+    <row r="8" spans="2:7" ht="15.75">
       <c r="B8" s="137" t="s">
         <v>116</v>
       </c>
@@ -16164,7 +16158,7 @@
         <v>2789.1607269899105</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75">
+    <row r="9" spans="2:7" ht="15.75">
       <c r="B9" s="138" t="s">
         <v>117</v>
       </c>
@@ -16181,7 +16175,7 @@
         <v>1000.4059048775962</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75">
+    <row r="10" spans="2:7" ht="15.75">
       <c r="B10" s="137" t="s">
         <v>118</v>
       </c>
@@ -16198,7 +16192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15.75">
+    <row r="11" spans="2:7" ht="15.75">
       <c r="B11" s="138" t="s">
         <v>161</v>
       </c>
@@ -16215,7 +16209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75">
+    <row r="12" spans="2:7" ht="15.75">
       <c r="B12" s="137" t="s">
         <v>154</v>
       </c>
@@ -16232,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15.75">
+    <row r="13" spans="2:7" ht="15.75">
       <c r="B13" s="137" t="s">
         <v>153</v>
       </c>
@@ -16249,7 +16243,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75">
+    <row r="14" spans="2:7" ht="15.75">
       <c r="B14" s="137" t="s">
         <v>119</v>
       </c>
@@ -16266,7 +16260,7 @@
         <v>932.25406274740817</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75">
+    <row r="15" spans="2:7" ht="15.75">
       <c r="B15" s="137" t="s">
         <v>234</v>
       </c>
@@ -16283,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75">
+    <row r="16" spans="2:7" ht="15.75">
       <c r="B16" s="137" t="s">
         <v>120</v>
       </c>
@@ -17691,13 +17685,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18559,13 +18552,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>

--- a/data-prep/planilhas-bimestral-2022-2bim.xlsx
+++ b/data-prep/planilhas-bimestral-2022-2bim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\github\bimestral\data-prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D2E0EE-8337-432C-A974-FA6F894285B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CB0C8-53DB-434A-98E2-FBA91BDDDCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="812" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="812" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="50" r:id="rId1"/>
@@ -928,7 +928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="480">
   <si>
     <t>Discriminação</t>
   </si>
@@ -2438,9 +2438,6 @@
   </si>
   <si>
     <t>diferença</t>
-  </si>
-  <si>
-    <t>justificativa</t>
   </si>
 </sst>
 </file>
@@ -7276,12 +7273,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A4:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7534,10 +7532,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7934,10 +7935,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8045,10 +8049,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8938,16 +8945,17 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AU53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C28" sqref="C28"/>
-      <selection pane="topRight" activeCell="C28" sqref="C28"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12646,10 +12654,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12871,12 +12882,13 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -14968,8 +14980,8 @@
   </sheetPr>
   <dimension ref="A4:V67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -15009,9 +15021,6 @@
       </c>
       <c r="E5" s="40" t="s">
         <v>424</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -16062,10 +16071,10 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G38"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -16079,7 +16088,7 @@
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="30.75" customHeight="1">
+    <row r="2" spans="2:6" ht="30.75" customHeight="1">
       <c r="B2" s="498" t="s">
         <v>145</v>
       </c>
@@ -16087,14 +16096,14 @@
       <c r="D2" s="498"/>
       <c r="E2" s="498"/>
     </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1">
+    <row r="3" spans="2:6" ht="15" customHeight="1">
       <c r="B3" s="113"/>
       <c r="C3" s="113"/>
       <c r="D3" s="113"/>
       <c r="E3" s="113"/>
       <c r="F3" s="113"/>
     </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" thickBot="1">
+    <row r="4" spans="2:6" ht="15" customHeight="1" thickBot="1">
       <c r="B4" s="43"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -16103,7 +16112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="87" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="2:6" ht="87" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="37" t="s">
         <v>50</v>
       </c>
@@ -16119,12 +16128,9 @@
       <c r="F5" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" thickTop="1"/>
-    <row r="7" spans="2:7" ht="15.75">
+    </row>
+    <row r="6" spans="2:6" ht="15" customHeight="1" thickTop="1"/>
+    <row r="7" spans="2:6" ht="15.75">
       <c r="B7" s="136" t="s">
         <v>129</v>
       </c>
@@ -16141,7 +16147,7 @@
         <v>10629.74767886987</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75">
+    <row r="8" spans="2:6" ht="15.75">
       <c r="B8" s="137" t="s">
         <v>116</v>
       </c>
@@ -16158,7 +16164,7 @@
         <v>2789.1607269899105</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75">
+    <row r="9" spans="2:6" ht="15.75">
       <c r="B9" s="138" t="s">
         <v>117</v>
       </c>
@@ -16175,7 +16181,7 @@
         <v>1000.4059048775962</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75">
+    <row r="10" spans="2:6" ht="15.75">
       <c r="B10" s="137" t="s">
         <v>118</v>
       </c>
@@ -16192,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75">
+    <row r="11" spans="2:6" ht="15.75">
       <c r="B11" s="138" t="s">
         <v>161</v>
       </c>
@@ -16209,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75">
+    <row r="12" spans="2:6" ht="15.75">
       <c r="B12" s="137" t="s">
         <v>154</v>
       </c>
@@ -16226,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75">
+    <row r="13" spans="2:6" ht="15.75">
       <c r="B13" s="137" t="s">
         <v>153</v>
       </c>
@@ -16243,7 +16249,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75">
+    <row r="14" spans="2:6" ht="15.75">
       <c r="B14" s="137" t="s">
         <v>119</v>
       </c>
@@ -16260,7 +16266,7 @@
         <v>932.25406274740817</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.75">
+    <row r="15" spans="2:6" ht="15.75">
       <c r="B15" s="137" t="s">
         <v>234</v>
       </c>
@@ -16277,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75">
+    <row r="16" spans="2:6" ht="15.75">
       <c r="B16" s="137" t="s">
         <v>120</v>
       </c>
@@ -17685,12 +17691,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18552,12 +18559,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
+    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
